--- a/ProbableCasesOverTimeByCounty/2021-02-23.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-02-23.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/22/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/23/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Probable 2021-02-22</t>
+  </si>
+  <si>
+    <t>Probable 2021-02-23</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1355,6 +1358,7 @@
     <col min="113" max="113" width="12.0" customWidth="true"/>
     <col min="114" max="114" width="12.0" customWidth="true"/>
     <col min="115" max="115" width="12.0" customWidth="true"/>
+    <col min="116" max="116" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1713,10 +1717,13 @@
       <c r="DK3" t="s" s="10">
         <v>116</v>
       </c>
+      <c r="DL3" t="s" s="10">
+        <v>117</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -2058,12 +2065,15 @@
         <v>1241.0</v>
       </c>
       <c r="DK4" t="n">
+        <v>1241.0</v>
+      </c>
+      <c r="DL4" t="n">
         <v>1241.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2405,12 +2415,15 @@
         <v>0.0</v>
       </c>
       <c r="DK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2753,11 +2766,14 @@
       </c>
       <c r="DK6" t="n">
         <v>3150.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>3233.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -3099,12 +3115,15 @@
         <v>269.0</v>
       </c>
       <c r="DK7" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="DL7" t="n">
         <v>269.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3447,11 +3466,14 @@
       </c>
       <c r="DK8" t="n">
         <v>90.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3793,12 +3815,15 @@
         <v>42.0</v>
       </c>
       <c r="DK9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DL9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -4141,11 +4166,14 @@
       </c>
       <c r="DK10" t="n">
         <v>1167.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>1312.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4487,12 +4515,15 @@
         <v>264.0</v>
       </c>
       <c r="DK11" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="DL11" t="n">
         <v>264.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -4835,11 +4866,14 @@
       </c>
       <c r="DK12" t="n">
         <v>209.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -5182,11 +5216,14 @@
       </c>
       <c r="DK13" t="n">
         <v>279.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>342.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -5529,11 +5566,14 @@
       </c>
       <c r="DK14" t="n">
         <v>1839.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>1842.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -5875,12 +5915,15 @@
         <v>169.0</v>
       </c>
       <c r="DK15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DL15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -6222,12 +6265,15 @@
         <v>367.0</v>
       </c>
       <c r="DK16" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="DL16" t="n">
         <v>367.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6569,12 +6615,15 @@
         <v>0.0</v>
       </c>
       <c r="DK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -6917,11 +6966,14 @@
       </c>
       <c r="DK18" t="n">
         <v>29934.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>29944.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -7263,12 +7315,15 @@
         <v>112.0</v>
       </c>
       <c r="DK19" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="DL19" t="n">
         <v>112.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -7610,12 +7665,15 @@
         <v>7.0</v>
       </c>
       <c r="DK20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DL20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -7957,12 +8015,15 @@
         <v>284.0</v>
       </c>
       <c r="DK21" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="DL21" t="n">
         <v>284.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -8305,11 +8366,14 @@
       </c>
       <c r="DK22" t="n">
         <v>1938.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>1953.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -8652,11 +8716,14 @@
       </c>
       <c r="DK23" t="n">
         <v>4651.0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>4656.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -8999,11 +9066,14 @@
       </c>
       <c r="DK24" t="n">
         <v>3479.0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>3553.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -9345,12 +9415,15 @@
         <v>80.0</v>
       </c>
       <c r="DK25" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="DL25" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -9692,12 +9765,15 @@
         <v>59.0</v>
       </c>
       <c r="DK26" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DL26" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -10040,11 +10116,14 @@
       </c>
       <c r="DK27" t="n">
         <v>105.0</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -10386,12 +10465,15 @@
         <v>2161.0</v>
       </c>
       <c r="DK28" t="n">
+        <v>2161.0</v>
+      </c>
+      <c r="DL28" t="n">
         <v>2161.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -10734,11 +10816,14 @@
       </c>
       <c r="DK29" t="n">
         <v>386.0</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>387.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -11081,11 +11166,14 @@
       </c>
       <c r="DK30" t="n">
         <v>408.0</v>
+      </c>
+      <c r="DL30" t="n">
+        <v>410.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -11427,12 +11515,15 @@
         <v>271.0</v>
       </c>
       <c r="DK31" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="DL31" t="n">
         <v>271.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -11775,11 +11866,14 @@
       </c>
       <c r="DK32" t="n">
         <v>187.0</v>
+      </c>
+      <c r="DL32" t="n">
+        <v>379.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -12122,11 +12216,14 @@
       </c>
       <c r="DK33" t="n">
         <v>539.0</v>
+      </c>
+      <c r="DL33" t="n">
+        <v>545.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -12468,12 +12565,15 @@
         <v>0.0</v>
       </c>
       <c r="DK34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -12815,12 +12915,15 @@
         <v>377.0</v>
       </c>
       <c r="DK35" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="DL35" t="n">
         <v>377.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -13162,12 +13265,15 @@
         <v>144.0</v>
       </c>
       <c r="DK36" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="DL36" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -13510,11 +13616,14 @@
       </c>
       <c r="DK37" t="n">
         <v>656.0</v>
+      </c>
+      <c r="DL37" t="n">
+        <v>659.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -13856,12 +13965,15 @@
         <v>250.0</v>
       </c>
       <c r="DK38" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="DL38" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -14203,12 +14315,15 @@
         <v>0.0</v>
       </c>
       <c r="DK39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -14551,11 +14666,14 @@
       </c>
       <c r="DK40" t="n">
         <v>1793.0</v>
+      </c>
+      <c r="DL40" t="n">
+        <v>1803.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -14897,12 +15015,15 @@
         <v>24.0</v>
       </c>
       <c r="DK41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DL41" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -15244,12 +15365,15 @@
         <v>78.0</v>
       </c>
       <c r="DK42" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DL42" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -15592,11 +15716,14 @@
       </c>
       <c r="DK43" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DL43" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -15938,12 +16065,15 @@
         <v>223.0</v>
       </c>
       <c r="DK44" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="DL44" t="n">
         <v>223.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -16285,12 +16415,15 @@
         <v>231.0</v>
       </c>
       <c r="DK45" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="DL45" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -16633,11 +16766,14 @@
       </c>
       <c r="DK46" t="n">
         <v>12505.0</v>
+      </c>
+      <c r="DL46" t="n">
+        <v>12691.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -16979,12 +17115,15 @@
         <v>70.0</v>
       </c>
       <c r="DK47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DL47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -17327,11 +17466,14 @@
       </c>
       <c r="DK48" t="n">
         <v>240.0</v>
+      </c>
+      <c r="DL48" t="n">
+        <v>241.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -17674,11 +17816,14 @@
       </c>
       <c r="DK49" t="n">
         <v>4172.0</v>
+      </c>
+      <c r="DL49" t="n">
+        <v>4205.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -18020,12 +18165,15 @@
         <v>251.0</v>
       </c>
       <c r="DK50" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="DL50" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -18368,11 +18516,14 @@
       </c>
       <c r="DK51" t="n">
         <v>139.0</v>
+      </c>
+      <c r="DL51" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -18714,12 +18865,15 @@
         <v>401.0</v>
       </c>
       <c r="DK52" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="DL52" t="n">
         <v>401.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -19062,11 +19216,14 @@
       </c>
       <c r="DK53" t="n">
         <v>235.0</v>
+      </c>
+      <c r="DL53" t="n">
+        <v>236.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -19408,12 +19565,15 @@
         <v>46.0</v>
       </c>
       <c r="DK54" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DL54" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -19755,12 +19915,15 @@
         <v>301.0</v>
       </c>
       <c r="DK55" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="DL55" t="n">
         <v>300.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -20102,12 +20265,15 @@
         <v>352.0</v>
       </c>
       <c r="DK56" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="DL56" t="n">
         <v>352.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -20450,11 +20616,14 @@
       </c>
       <c r="DK57" t="n">
         <v>195.0</v>
+      </c>
+      <c r="DL57" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -20796,12 +20965,15 @@
         <v>24.0</v>
       </c>
       <c r="DK58" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DL58" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -21144,11 +21316,14 @@
       </c>
       <c r="DK59" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DL59" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -21491,11 +21666,14 @@
       </c>
       <c r="DK60" t="n">
         <v>34175.0</v>
+      </c>
+      <c r="DL60" t="n">
+        <v>34253.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -21837,12 +22015,15 @@
         <v>0.0</v>
       </c>
       <c r="DK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -22185,11 +22366,14 @@
       </c>
       <c r="DK62" t="n">
         <v>644.0</v>
+      </c>
+      <c r="DL62" t="n">
+        <v>646.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -22531,12 +22715,15 @@
         <v>123.0</v>
       </c>
       <c r="DK63" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="DL63" t="n">
         <v>123.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -22879,11 +23066,14 @@
       </c>
       <c r="DK64" t="n">
         <v>13728.0</v>
+      </c>
+      <c r="DL64" t="n">
+        <v>14200.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -23225,12 +23415,15 @@
         <v>0.0</v>
       </c>
       <c r="DK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -23573,11 +23766,14 @@
       </c>
       <c r="DK66" t="n">
         <v>57.0</v>
+      </c>
+      <c r="DL66" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -23920,11 +24116,14 @@
       </c>
       <c r="DK67" t="n">
         <v>140.0</v>
+      </c>
+      <c r="DL67" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -24266,12 +24465,15 @@
         <v>174.0</v>
       </c>
       <c r="DK68" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DL68" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -24613,12 +24815,15 @@
         <v>89.0</v>
       </c>
       <c r="DK69" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="DL69" t="n">
         <v>89.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -24960,12 +25165,15 @@
         <v>343.0</v>
       </c>
       <c r="DK70" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="DL70" t="n">
         <v>343.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -25308,11 +25516,14 @@
       </c>
       <c r="DK71" t="n">
         <v>7455.0</v>
+      </c>
+      <c r="DL71" t="n">
+        <v>7651.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -25655,11 +25866,14 @@
       </c>
       <c r="DK72" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DL72" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -26002,11 +26216,14 @@
       </c>
       <c r="DK73" t="n">
         <v>2664.0</v>
+      </c>
+      <c r="DL73" t="n">
+        <v>2675.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -26348,12 +26565,15 @@
         <v>0.0</v>
       </c>
       <c r="DK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -26695,12 +26915,15 @@
         <v>1229.0</v>
       </c>
       <c r="DK75" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="DL75" t="n">
         <v>1229.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -27042,12 +27265,15 @@
         <v>156.0</v>
       </c>
       <c r="DK76" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="DL76" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -27390,11 +27616,14 @@
       </c>
       <c r="DK77" t="n">
         <v>655.0</v>
+      </c>
+      <c r="DL77" t="n">
+        <v>657.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -27737,11 +27966,14 @@
       </c>
       <c r="DK78" t="n">
         <v>844.0</v>
+      </c>
+      <c r="DL78" t="n">
+        <v>848.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -28083,12 +28315,15 @@
         <v>0.0</v>
       </c>
       <c r="DK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -28431,11 +28666,14 @@
       </c>
       <c r="DK80" t="n">
         <v>440.0</v>
+      </c>
+      <c r="DL80" t="n">
+        <v>443.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -28777,12 +29015,15 @@
         <v>32.0</v>
       </c>
       <c r="DK81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DL81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -29125,11 +29366,14 @@
       </c>
       <c r="DK82" t="n">
         <v>6875.0</v>
+      </c>
+      <c r="DL82" t="n">
+        <v>6960.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -29471,12 +29715,15 @@
         <v>206.0</v>
       </c>
       <c r="DK83" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="DL83" t="n">
         <v>206.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -29819,11 +30066,14 @@
       </c>
       <c r="DK84" t="n">
         <v>699.0</v>
+      </c>
+      <c r="DL84" t="n">
+        <v>700.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -30166,11 +30416,14 @@
       </c>
       <c r="DK85" t="n">
         <v>530.0</v>
+      </c>
+      <c r="DL85" t="n">
+        <v>550.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -30512,12 +30765,15 @@
         <v>0.0</v>
       </c>
       <c r="DK86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -30859,12 +31115,15 @@
         <v>4527.0</v>
       </c>
       <c r="DK87" t="n">
+        <v>4527.0</v>
+      </c>
+      <c r="DL87" t="n">
         <v>4527.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -31206,12 +31465,15 @@
         <v>150.0</v>
       </c>
       <c r="DK88" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="DL88" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -31554,11 +31816,14 @@
       </c>
       <c r="DK89" t="n">
         <v>681.0</v>
+      </c>
+      <c r="DL89" t="n">
+        <v>755.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -31901,11 +32166,14 @@
       </c>
       <c r="DK90" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DL90" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -32247,12 +32515,15 @@
         <v>133.0</v>
       </c>
       <c r="DK91" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DL91" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -32595,11 +32866,14 @@
       </c>
       <c r="DK92" t="n">
         <v>238.0</v>
+      </c>
+      <c r="DL92" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -32942,11 +33216,14 @@
       </c>
       <c r="DK93" t="n">
         <v>280.0</v>
+      </c>
+      <c r="DL93" t="n">
+        <v>284.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -33288,12 +33565,15 @@
         <v>0.0</v>
       </c>
       <c r="DK94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -33635,12 +33915,15 @@
         <v>4722.0</v>
       </c>
       <c r="DK95" t="n">
+        <v>4722.0</v>
+      </c>
+      <c r="DL95" t="n">
         <v>4722.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -33983,11 +34266,14 @@
       </c>
       <c r="DK96" t="n">
         <v>295.0</v>
+      </c>
+      <c r="DL96" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -34330,11 +34616,14 @@
       </c>
       <c r="DK97" t="n">
         <v>2730.0</v>
+      </c>
+      <c r="DL97" t="n">
+        <v>3138.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -34676,12 +34965,15 @@
         <v>0.0</v>
       </c>
       <c r="DK98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -35023,12 +35315,15 @@
         <v>98.0</v>
       </c>
       <c r="DK99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="DL99" t="n">
         <v>98.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -35370,12 +35665,15 @@
         <v>49.0</v>
       </c>
       <c r="DK100" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DL100" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -35717,12 +36015,15 @@
         <v>448.0</v>
       </c>
       <c r="DK101" t="n">
+        <v>448.0</v>
+      </c>
+      <c r="DL101" t="n">
         <v>448.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -36064,12 +36365,15 @@
         <v>55.0</v>
       </c>
       <c r="DK102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DL102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -36411,12 +36715,15 @@
         <v>2391.0</v>
       </c>
       <c r="DK103" t="n">
+        <v>2391.0</v>
+      </c>
+      <c r="DL103" t="n">
         <v>2391.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -36758,12 +37065,15 @@
         <v>0.0</v>
       </c>
       <c r="DK104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -37106,11 +37416,14 @@
       </c>
       <c r="DK105" t="n">
         <v>2192.0</v>
+      </c>
+      <c r="DL105" t="n">
+        <v>2193.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -37453,11 +37766,14 @@
       </c>
       <c r="DK106" t="n">
         <v>60.0</v>
+      </c>
+      <c r="DL106" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -37800,11 +38116,14 @@
       </c>
       <c r="DK107" t="n">
         <v>233.0</v>
+      </c>
+      <c r="DL107" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -38147,11 +38466,14 @@
       </c>
       <c r="DK108" t="n">
         <v>1761.0</v>
+      </c>
+      <c r="DL108" t="n">
+        <v>1771.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -38493,12 +38815,15 @@
         <v>41.0</v>
       </c>
       <c r="DK109" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DL109" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -38840,12 +39165,15 @@
         <v>1799.0</v>
       </c>
       <c r="DK110" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="DL110" t="n">
         <v>1799.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -39188,11 +39516,14 @@
       </c>
       <c r="DK111" t="n">
         <v>22626.0</v>
+      </c>
+      <c r="DL111" t="n">
+        <v>22931.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -39535,11 +39866,14 @@
       </c>
       <c r="DK112" t="n">
         <v>650.0</v>
+      </c>
+      <c r="DL112" t="n">
+        <v>651.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -39882,11 +40216,14 @@
       </c>
       <c r="DK113" t="n">
         <v>266.0</v>
+      </c>
+      <c r="DL113" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -40229,11 +40566,14 @@
       </c>
       <c r="DK114" t="n">
         <v>2048.0</v>
+      </c>
+      <c r="DL114" t="n">
+        <v>2054.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -40576,11 +40916,14 @@
       </c>
       <c r="DK115" t="n">
         <v>1391.0</v>
+      </c>
+      <c r="DL115" t="n">
+        <v>1393.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -40923,11 +41266,14 @@
       </c>
       <c r="DK116" t="n">
         <v>680.0</v>
+      </c>
+      <c r="DL116" t="n">
+        <v>681.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -41269,12 +41615,15 @@
         <v>1506.0</v>
       </c>
       <c r="DK117" t="n">
+        <v>1506.0</v>
+      </c>
+      <c r="DL117" t="n">
         <v>1506.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -41616,12 +41965,15 @@
         <v>79.0</v>
       </c>
       <c r="DK118" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="DL118" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -41963,12 +42315,15 @@
         <v>0.0</v>
       </c>
       <c r="DK119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -42310,12 +42665,15 @@
         <v>465.0</v>
       </c>
       <c r="DK120" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="DL120" t="n">
         <v>465.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -42658,11 +43016,14 @@
       </c>
       <c r="DK121" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DL121" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -43004,12 +43365,15 @@
         <v>76.0</v>
       </c>
       <c r="DK122" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DL122" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -43352,11 +43716,14 @@
       </c>
       <c r="DK123" t="n">
         <v>158.0</v>
+      </c>
+      <c r="DL123" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -43699,11 +44066,14 @@
       </c>
       <c r="DK124" t="n">
         <v>1362.0</v>
+      </c>
+      <c r="DL124" t="n">
+        <v>1374.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -44046,11 +44416,14 @@
       </c>
       <c r="DK125" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DL125" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -44392,12 +44765,15 @@
         <v>0.0</v>
       </c>
       <c r="DK126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -44739,12 +45115,15 @@
         <v>31.0</v>
       </c>
       <c r="DK127" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DL127" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -45087,11 +45466,14 @@
       </c>
       <c r="DK128" t="n">
         <v>407.0</v>
+      </c>
+      <c r="DL128" t="n">
+        <v>406.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -45434,11 +45816,14 @@
       </c>
       <c r="DK129" t="n">
         <v>2402.0</v>
+      </c>
+      <c r="DL129" t="n">
+        <v>2406.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -45781,11 +46166,14 @@
       </c>
       <c r="DK130" t="n">
         <v>657.0</v>
+      </c>
+      <c r="DL130" t="n">
+        <v>662.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -46128,11 +46516,14 @@
       </c>
       <c r="DK131" t="n">
         <v>121.0</v>
+      </c>
+      <c r="DL131" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -46475,11 +46866,14 @@
       </c>
       <c r="DK132" t="n">
         <v>2057.0</v>
+      </c>
+      <c r="DL132" t="n">
+        <v>2068.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -46822,11 +47216,14 @@
       </c>
       <c r="DK133" t="n">
         <v>1164.0</v>
+      </c>
+      <c r="DL133" t="n">
+        <v>1330.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -47168,12 +47565,15 @@
         <v>16.0</v>
       </c>
       <c r="DK134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DL134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -47515,12 +47915,15 @@
         <v>42.0</v>
       </c>
       <c r="DK135" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DL135" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -47863,11 +48266,14 @@
       </c>
       <c r="DK136" t="n">
         <v>1857.0</v>
+      </c>
+      <c r="DL136" t="n">
+        <v>1991.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -48209,12 +48615,15 @@
         <v>52.0</v>
       </c>
       <c r="DK137" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DL137" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -48556,12 +48965,15 @@
         <v>6.0</v>
       </c>
       <c r="DK138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DL138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -48904,11 +49316,14 @@
       </c>
       <c r="DK139" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DL139" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -49250,12 +49665,15 @@
         <v>546.0</v>
       </c>
       <c r="DK140" t="n">
+        <v>546.0</v>
+      </c>
+      <c r="DL140" t="n">
         <v>546.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -49597,12 +50015,15 @@
         <v>83.0</v>
       </c>
       <c r="DK141" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="DL141" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -49944,12 +50365,15 @@
         <v>3020.0</v>
       </c>
       <c r="DK142" t="n">
+        <v>3020.0</v>
+      </c>
+      <c r="DL142" t="n">
         <v>3020.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -50292,11 +50716,14 @@
       </c>
       <c r="DK143" t="n">
         <v>431.0</v>
+      </c>
+      <c r="DL143" t="n">
+        <v>432.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -50638,12 +51065,15 @@
         <v>319.0</v>
       </c>
       <c r="DK144" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="DL144" t="n">
         <v>319.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -50986,11 +51416,14 @@
       </c>
       <c r="DK145" t="n">
         <v>191.0</v>
+      </c>
+      <c r="DL145" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -51333,11 +51766,14 @@
       </c>
       <c r="DK146" t="n">
         <v>351.0</v>
+      </c>
+      <c r="DL146" t="n">
+        <v>422.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -51680,11 +52116,14 @@
       </c>
       <c r="DK147" t="n">
         <v>1015.0</v>
+      </c>
+      <c r="DL147" t="n">
+        <v>1018.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -52026,12 +52465,15 @@
         <v>321.0</v>
       </c>
       <c r="DK148" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="DL148" t="n">
         <v>322.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -52373,12 +52815,15 @@
         <v>1468.0</v>
       </c>
       <c r="DK149" t="n">
+        <v>1468.0</v>
+      </c>
+      <c r="DL149" t="n">
         <v>1468.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -52720,12 +53165,15 @@
         <v>550.0</v>
       </c>
       <c r="DK150" t="n">
+        <v>555.0</v>
+      </c>
+      <c r="DL150" t="n">
         <v>555.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -53067,12 +53515,15 @@
         <v>23.0</v>
       </c>
       <c r="DK151" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DL151" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -53414,12 +53865,15 @@
         <v>249.0</v>
       </c>
       <c r="DK152" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DL152" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -53762,11 +54216,14 @@
       </c>
       <c r="DK153" t="n">
         <v>416.0</v>
+      </c>
+      <c r="DL153" t="n">
+        <v>424.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -54108,12 +54565,15 @@
         <v>0.0</v>
       </c>
       <c r="DK154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -54455,12 +54915,15 @@
         <v>0.0</v>
       </c>
       <c r="DK155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -54802,12 +55265,15 @@
         <v>0.0</v>
       </c>
       <c r="DK156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -55150,11 +55616,14 @@
       </c>
       <c r="DK157" t="n">
         <v>149.0</v>
+      </c>
+      <c r="DL157" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -55496,12 +55965,15 @@
         <v>0.0</v>
       </c>
       <c r="DK158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -55843,12 +56315,15 @@
         <v>19.0</v>
       </c>
       <c r="DK159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DL159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -56191,11 +56666,14 @@
       </c>
       <c r="DK160" t="n">
         <v>216.0</v>
+      </c>
+      <c r="DL160" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -56537,12 +57015,15 @@
         <v>177.0</v>
       </c>
       <c r="DK161" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="DL161" t="n">
         <v>177.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -56884,12 +57365,15 @@
         <v>253.0</v>
       </c>
       <c r="DK162" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="DL162" t="n">
         <v>253.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -57231,12 +57715,15 @@
         <v>145.0</v>
       </c>
       <c r="DK163" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="DL163" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -57578,12 +58065,15 @@
         <v>356.0</v>
       </c>
       <c r="DK164" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="DL164" t="n">
         <v>356.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -57925,12 +58415,15 @@
         <v>0.0</v>
       </c>
       <c r="DK165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -58273,11 +58766,14 @@
       </c>
       <c r="DK166" t="n">
         <v>969.0</v>
+      </c>
+      <c r="DL166" t="n">
+        <v>934.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -58619,12 +59115,15 @@
         <v>66.0</v>
       </c>
       <c r="DK167" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="DL167" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -58966,12 +59465,15 @@
         <v>0.0</v>
       </c>
       <c r="DK168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -59313,12 +59815,15 @@
         <v>990.0</v>
       </c>
       <c r="DK169" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="DL169" t="n">
         <v>990.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -59660,12 +60165,15 @@
         <v>52.0</v>
       </c>
       <c r="DK170" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DL170" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -60007,12 +60515,15 @@
         <v>0.0</v>
       </c>
       <c r="DK171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -60354,12 +60865,15 @@
         <v>295.0</v>
       </c>
       <c r="DK172" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="DL172" t="n">
         <v>295.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -60702,11 +61216,14 @@
       </c>
       <c r="DK173" t="n">
         <v>7797.0</v>
+      </c>
+      <c r="DL173" t="n">
+        <v>7909.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -61049,11 +61566,14 @@
       </c>
       <c r="DK174" t="n">
         <v>299.0</v>
+      </c>
+      <c r="DL174" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -61395,12 +61915,15 @@
         <v>264.0</v>
       </c>
       <c r="DK175" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="DL175" t="n">
         <v>264.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -61742,12 +62265,15 @@
         <v>49.0</v>
       </c>
       <c r="DK176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DL176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -62090,11 +62616,14 @@
       </c>
       <c r="DK177" t="n">
         <v>910.0</v>
+      </c>
+      <c r="DL177" t="n">
+        <v>918.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -62436,12 +62965,15 @@
         <v>2130.0</v>
       </c>
       <c r="DK178" t="n">
+        <v>2130.0</v>
+      </c>
+      <c r="DL178" t="n">
         <v>2130.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -62783,12 +63315,15 @@
         <v>288.0</v>
       </c>
       <c r="DK179" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="DL179" t="n">
         <v>288.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -63130,12 +63665,15 @@
         <v>0.0</v>
       </c>
       <c r="DK180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -63478,11 +64016,14 @@
       </c>
       <c r="DK181" t="n">
         <v>9943.0</v>
+      </c>
+      <c r="DL181" t="n">
+        <v>9967.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -63824,12 +64365,15 @@
         <v>106.0</v>
       </c>
       <c r="DK182" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DL182" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -64171,12 +64715,15 @@
         <v>129.0</v>
       </c>
       <c r="DK183" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="DL183" t="n">
         <v>129.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -64518,12 +65065,15 @@
         <v>3564.0</v>
       </c>
       <c r="DK184" t="n">
+        <v>3564.0</v>
+      </c>
+      <c r="DL184" t="n">
         <v>3564.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -64866,11 +65416,14 @@
       </c>
       <c r="DK185" t="n">
         <v>365.0</v>
+      </c>
+      <c r="DL185" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -65213,11 +65766,14 @@
       </c>
       <c r="DK186" t="n">
         <v>536.0</v>
+      </c>
+      <c r="DL186" t="n">
+        <v>544.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -65560,11 +66116,14 @@
       </c>
       <c r="DK187" t="n">
         <v>2779.0</v>
+      </c>
+      <c r="DL187" t="n">
+        <v>2788.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -65906,12 +66465,15 @@
         <v>337.0</v>
       </c>
       <c r="DK188" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="DL188" t="n">
         <v>337.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -66253,12 +66815,15 @@
         <v>273.0</v>
       </c>
       <c r="DK189" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="DL189" t="n">
         <v>273.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -66601,11 +67166,14 @@
       </c>
       <c r="DK190" t="n">
         <v>1525.0</v>
+      </c>
+      <c r="DL190" t="n">
+        <v>1561.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -66947,12 +67515,15 @@
         <v>0.0</v>
       </c>
       <c r="DK191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -67294,12 +67865,15 @@
         <v>166.0</v>
       </c>
       <c r="DK192" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="DL192" t="n">
         <v>166.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -67641,12 +68215,15 @@
         <v>367.0</v>
       </c>
       <c r="DK193" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="DL193" t="n">
         <v>367.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -67988,12 +68565,15 @@
         <v>0.0</v>
       </c>
       <c r="DK194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -68335,12 +68915,15 @@
         <v>175.0</v>
       </c>
       <c r="DK195" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="DL195" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -68683,11 +69266,14 @@
       </c>
       <c r="DK196" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DL196" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -69029,12 +69615,15 @@
         <v>251.0</v>
       </c>
       <c r="DK197" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="DL197" t="n">
         <v>252.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -69376,12 +69965,15 @@
         <v>705.0</v>
       </c>
       <c r="DK198" t="n">
+        <v>706.0</v>
+      </c>
+      <c r="DL198" t="n">
         <v>706.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -69723,12 +70315,15 @@
         <v>53.0</v>
       </c>
       <c r="DK199" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DL199" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -70070,12 +70665,15 @@
         <v>3.0</v>
       </c>
       <c r="DK200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DL200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -70417,12 +71015,15 @@
         <v>400.0</v>
       </c>
       <c r="DK201" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="DL201" t="n">
         <v>400.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -70765,11 +71366,14 @@
       </c>
       <c r="DK202" t="n">
         <v>1791.0</v>
+      </c>
+      <c r="DL202" t="n">
+        <v>1795.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -71111,12 +71715,15 @@
         <v>478.0</v>
       </c>
       <c r="DK203" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="DL203" t="n">
         <v>478.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -71459,11 +72066,14 @@
       </c>
       <c r="DK204" t="n">
         <v>1606.0</v>
+      </c>
+      <c r="DL204" t="n">
+        <v>1613.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -71805,12 +72415,15 @@
         <v>324.0</v>
       </c>
       <c r="DK205" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="DL205" t="n">
         <v>324.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -72153,11 +72766,14 @@
       </c>
       <c r="DK206" t="n">
         <v>202.0</v>
+      </c>
+      <c r="DL206" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -72500,11 +73116,14 @@
       </c>
       <c r="DK207" t="n">
         <v>259.0</v>
+      </c>
+      <c r="DL207" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -72846,12 +73465,15 @@
         <v>943.0</v>
       </c>
       <c r="DK208" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="DL208" t="n">
         <v>943.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -73194,11 +73816,14 @@
       </c>
       <c r="DK209" t="n">
         <v>241.0</v>
+      </c>
+      <c r="DL209" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -73541,11 +74166,14 @@
       </c>
       <c r="DK210" t="n">
         <v>108.0</v>
+      </c>
+      <c r="DL210" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -73887,12 +74515,15 @@
         <v>0.0</v>
       </c>
       <c r="DK211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -74234,12 +74865,15 @@
         <v>122.0</v>
       </c>
       <c r="DK212" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="DL212" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -74582,11 +75216,14 @@
       </c>
       <c r="DK213" t="n">
         <v>651.0</v>
+      </c>
+      <c r="DL213" t="n">
+        <v>657.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -74928,12 +75565,15 @@
         <v>23.0</v>
       </c>
       <c r="DK214" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DL214" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -75275,12 +75915,15 @@
         <v>7740.0</v>
       </c>
       <c r="DK215" t="n">
+        <v>7740.0</v>
+      </c>
+      <c r="DL215" t="n">
         <v>7740.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -75622,12 +76265,15 @@
         <v>456.0</v>
       </c>
       <c r="DK216" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="DL216" t="n">
         <v>456.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -75970,11 +76616,14 @@
       </c>
       <c r="DK217" t="n">
         <v>1431.0</v>
+      </c>
+      <c r="DL217" t="n">
+        <v>1448.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -76316,12 +76965,15 @@
         <v>322.0</v>
       </c>
       <c r="DK218" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="DL218" t="n">
         <v>322.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -76664,11 +77316,14 @@
       </c>
       <c r="DK219" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DL219" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -77010,12 +77665,15 @@
         <v>101.0</v>
       </c>
       <c r="DK220" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="DL220" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -77358,11 +78016,14 @@
       </c>
       <c r="DK221" t="n">
         <v>192.0</v>
+      </c>
+      <c r="DL221" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -77705,11 +78366,14 @@
       </c>
       <c r="DK222" t="n">
         <v>353.0</v>
+      </c>
+      <c r="DL222" t="n">
+        <v>352.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -78052,11 +78716,14 @@
       </c>
       <c r="DK223" t="n">
         <v>34909.0</v>
+      </c>
+      <c r="DL223" t="n">
+        <v>35117.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -78399,11 +79066,14 @@
       </c>
       <c r="DK224" t="n">
         <v>8031.0</v>
+      </c>
+      <c r="DL224" t="n">
+        <v>8060.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -78745,12 +79415,15 @@
         <v>11.0</v>
       </c>
       <c r="DK225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DL225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -79092,12 +79765,15 @@
         <v>0.0</v>
       </c>
       <c r="DK226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -79439,12 +80115,15 @@
         <v>23.0</v>
       </c>
       <c r="DK227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DL227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -79786,12 +80465,15 @@
         <v>936.0</v>
       </c>
       <c r="DK228" t="n">
+        <v>936.0</v>
+      </c>
+      <c r="DL228" t="n">
         <v>936.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -80133,12 +80815,15 @@
         <v>7982.0</v>
       </c>
       <c r="DK229" t="n">
+        <v>7993.0</v>
+      </c>
+      <c r="DL229" t="n">
         <v>7993.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -80480,12 +81165,15 @@
         <v>0.0</v>
       </c>
       <c r="DK230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -80827,12 +81515,15 @@
         <v>186.0</v>
       </c>
       <c r="DK231" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="DL231" t="n">
         <v>186.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -81175,11 +81866,14 @@
       </c>
       <c r="DK232" t="n">
         <v>650.0</v>
+      </c>
+      <c r="DL232" t="n">
+        <v>665.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -81521,12 +82215,15 @@
         <v>1837.0</v>
       </c>
       <c r="DK233" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="DL233" t="n">
         <v>1837.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -81868,12 +82565,15 @@
         <v>293.0</v>
       </c>
       <c r="DK234" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="DL234" t="n">
         <v>293.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -82216,11 +82916,14 @@
       </c>
       <c r="DK235" t="n">
         <v>111.0</v>
+      </c>
+      <c r="DL235" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -82562,12 +83265,15 @@
         <v>0.0</v>
       </c>
       <c r="DK236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -82909,12 +83615,15 @@
         <v>1453.0</v>
       </c>
       <c r="DK237" t="n">
+        <v>1453.0</v>
+      </c>
+      <c r="DL237" t="n">
         <v>1453.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -83256,12 +83965,15 @@
         <v>9.0</v>
       </c>
       <c r="DK238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DL238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -83603,12 +84315,15 @@
         <v>798.0</v>
       </c>
       <c r="DK239" t="n">
+        <v>798.0</v>
+      </c>
+      <c r="DL239" t="n">
         <v>798.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -83950,12 +84665,15 @@
         <v>396.0</v>
       </c>
       <c r="DK240" t="n">
+        <v>396.0</v>
+      </c>
+      <c r="DL240" t="n">
         <v>396.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -84297,12 +85015,15 @@
         <v>463.0</v>
       </c>
       <c r="DK241" t="n">
+        <v>463.0</v>
+      </c>
+      <c r="DL241" t="n">
         <v>463.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -84645,11 +85366,14 @@
       </c>
       <c r="DK242" t="n">
         <v>617.0</v>
+      </c>
+      <c r="DL242" t="n">
+        <v>620.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -84991,12 +85715,15 @@
         <v>0.0</v>
       </c>
       <c r="DK243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -85338,12 +86065,15 @@
         <v>376.0</v>
       </c>
       <c r="DK244" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="DL244" t="n">
         <v>376.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -85685,12 +86415,15 @@
         <v>45.0</v>
       </c>
       <c r="DK245" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DL245" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -86032,12 +86765,15 @@
         <v>0.0</v>
       </c>
       <c r="DK246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -86380,11 +87116,14 @@
       </c>
       <c r="DK247" t="n">
         <v>277.0</v>
+      </c>
+      <c r="DL247" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -86727,11 +87466,14 @@
       </c>
       <c r="DK248" t="n">
         <v>153.0</v>
+      </c>
+      <c r="DL248" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -87073,12 +87815,15 @@
         <v>5059.0</v>
       </c>
       <c r="DK249" t="n">
+        <v>5059.0</v>
+      </c>
+      <c r="DL249" t="n">
         <v>5059.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -87421,11 +88166,14 @@
       </c>
       <c r="DK250" t="n">
         <v>787.0</v>
+      </c>
+      <c r="DL250" t="n">
+        <v>980.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -87767,12 +88515,15 @@
         <v>181.0</v>
       </c>
       <c r="DK251" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="DL251" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -88115,11 +88866,14 @@
       </c>
       <c r="DK252" t="n">
         <v>1079.0</v>
+      </c>
+      <c r="DL252" t="n">
+        <v>1082.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -88461,12 +89215,15 @@
         <v>1343.0</v>
       </c>
       <c r="DK253" t="n">
+        <v>1343.0</v>
+      </c>
+      <c r="DL253" t="n">
         <v>1343.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -88808,12 +89565,15 @@
         <v>0.0</v>
       </c>
       <c r="DK254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -89155,12 +89915,15 @@
         <v>219.0</v>
       </c>
       <c r="DK255" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="DL255" t="n">
         <v>219.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -89503,11 +90266,14 @@
       </c>
       <c r="DK256" t="n">
         <v>196.0</v>
+      </c>
+      <c r="DL256" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -89850,6 +90616,9 @@
       </c>
       <c r="DK257" t="n">
         <v>174.0</v>
+      </c>
+      <c r="DL257" t="n">
+        <v>190.0</v>
       </c>
     </row>
   </sheetData>
